--- a/biology/Botanique/Lytocaryum/Lytocaryum.xlsx
+++ b/biology/Botanique/Lytocaryum/Lytocaryum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lytocaryum est un genre de plantes de la famille des arécacées (les palmiers) endémique du Brésil, maintenant intégré dans le genre Syagrus [1]. Ces espèces ont été transférées avec les règles  suivantes [2],[3] :
-Lytocaryum hoehnei (Burret) Toledo[4]  =  Syagrus hoehnei	 Burret	 (1937).
-Lytocaryum insigne (Drude) Toledo[5]	=  Syagrus insignis		(Devansaye) Becc. (1916).
-Lytocaryum itapebiense Noblick &amp; Lorenzi[6]		=  Syagrus itapebiensis	 (Noblick &amp; Lorenzi) Noblick &amp; Meerow	(2015).
-Lytocaryum weddellianum (H.Wendl.) Toledo[7]	=  Syagrus weddelliana	 (H.Wendl.) Becc. 		(1916).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lytocaryum est un genre de plantes de la famille des arécacées (les palmiers) endémique du Brésil, maintenant intégré dans le genre Syagrus . Ces espèces ont été transférées avec les règles  suivantes , :
+Lytocaryum hoehnei (Burret) Toledo  =  Syagrus hoehnei	 Burret	 (1937).
+Lytocaryum insigne (Drude) Toledo	=  Syagrus insignis		(Devansaye) Becc. (1916).
+Lytocaryum itapebiense Noblick &amp; Lorenzi		=  Syagrus itapebiensis	 (Noblick &amp; Lorenzi) Noblick &amp; Meerow	(2015).
+Lytocaryum weddellianum (H.Wendl.) Toledo	=  Syagrus weddelliana	 (H.Wendl.) Becc. 		(1916).
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille des Arecaceae
 Sous-famille des Arecoideae
@@ -548,14 +562,16 @@
           <t>Modification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">* Le genre Lytocaryum a été transféré dans le genre Syagrus [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">* Le genre Lytocaryum a été transféré dans le genre Syagrus 
 Les espèces de ce genre sont donc maintenant respectivement :
 Syagrus hoehnei               Burret, Notizbl.         (Syn. L.hoehnei)
 Syagrus insignis       	 (Devansaye)              (Syn. L. insigne)
 Syagrus itapebiensis    	 (Noblick &amp; Lorenzi)     (Syn. L. itapebiense)
-Syagrus weddelliana    	 (H.Wendl.) Becc         (Syn. L. weddellianum) [8].
+Syagrus weddelliana    	 (H.Wendl.) Becc         (Syn. L. weddellianum) .
 </t>
         </is>
       </c>
